--- a/Archive/Design.xlsx
+++ b/Archive/Design.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Document_x64\Documents\Visual Studio 2013\Projects\ERPManagement\Archive\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="30" windowWidth="20730" windowHeight="11730" activeTab="3"/>
   </bookViews>
@@ -32,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="105">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -149,10 +154,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SqlExecution</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SqlExecutionId</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -179,10 +180,6 @@
   <si>
     <t>NULL</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ScriptFileName</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>varchar</t>
@@ -485,6 +482,18 @@
 1: System DB</t>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>SqlExecution</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UploadFileName</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SavedFileName</t>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
@@ -494,21 +503,21 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -517,7 +526,7 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1043,6 +1052,27 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1052,30 +1082,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1345,7 +1354,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1375,16 +1384,16 @@
       <c r="B2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="34"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="41"/>
       <c r="F2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="H2" s="34"/>
+      <c r="G2" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="H2" s="41"/>
       <c r="I2" s="1"/>
       <c r="J2" s="2"/>
     </row>
@@ -1410,7 +1419,7 @@
         <v>4</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>5</v>
@@ -1438,7 +1447,7 @@
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
       <c r="F5" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G5" s="10" t="s">
         <v>11</v>
@@ -1453,10 +1462,10 @@
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
       <c r="F6" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H6" s="10">
         <v>20</v>
@@ -1470,10 +1479,10 @@
       <c r="D7" s="10"/>
       <c r="E7" s="17"/>
       <c r="F7" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H7" s="17">
         <v>100</v>
@@ -1487,7 +1496,7 @@
       <c r="D8" s="10"/>
       <c r="E8" s="17"/>
       <c r="F8" s="10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G8" s="10" t="s">
         <v>11</v>
@@ -1496,13 +1505,13 @@
       <c r="I8" s="17"/>
       <c r="J8" s="31"/>
     </row>
-    <row r="9" spans="2:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:10" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B9" s="16"/>
       <c r="C9" s="17"/>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
       <c r="F9" s="17" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G9" s="17" t="s">
         <v>11</v>
@@ -1510,7 +1519,7 @@
       <c r="H9" s="17"/>
       <c r="I9" s="17"/>
       <c r="J9" s="31" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.15">
@@ -1519,10 +1528,10 @@
       <c r="D10" s="17"/>
       <c r="E10" s="17"/>
       <c r="F10" s="17" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G10" s="17" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H10" s="17">
         <v>50</v>
@@ -1536,17 +1545,17 @@
       <c r="D11" s="17"/>
       <c r="E11" s="17"/>
       <c r="F11" s="17" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H11" s="17">
         <v>200</v>
       </c>
       <c r="I11" s="17"/>
       <c r="J11" s="31" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.15">
@@ -1555,17 +1564,17 @@
       <c r="D12" s="17"/>
       <c r="E12" s="17"/>
       <c r="F12" s="17" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H12" s="17">
         <v>200</v>
       </c>
       <c r="I12" s="17"/>
       <c r="J12" s="18" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.15">
@@ -1574,10 +1583,10 @@
       <c r="D13" s="17"/>
       <c r="E13" s="17"/>
       <c r="F13" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="G13" s="17" t="s">
         <v>72</v>
-      </c>
-      <c r="G13" s="17" t="s">
-        <v>74</v>
       </c>
       <c r="H13" s="17">
         <v>50</v>
@@ -1591,10 +1600,10 @@
       <c r="D14" s="17"/>
       <c r="E14" s="17"/>
       <c r="F14" s="17" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H14" s="17">
         <v>50</v>
@@ -1659,16 +1668,16 @@
       <c r="B2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="34"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="41"/>
       <c r="F2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="33" t="s">
+      <c r="G2" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="34"/>
+      <c r="H2" s="41"/>
       <c r="I2" s="1"/>
       <c r="J2" s="2"/>
     </row>
@@ -1694,7 +1703,7 @@
         <v>4</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>5</v>
@@ -1746,7 +1755,7 @@
         <v>50</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="J6" s="12"/>
     </row>
@@ -1756,16 +1765,16 @@
       <c r="D7" s="10"/>
       <c r="E7" s="17"/>
       <c r="F7" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H7" s="17">
         <v>20</v>
       </c>
       <c r="I7" s="17" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="J7" s="18"/>
     </row>
@@ -1851,16 +1860,16 @@
       <c r="B2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="34"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="41"/>
       <c r="F2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="33" t="s">
+      <c r="G2" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="34"/>
+      <c r="H2" s="41"/>
       <c r="I2" s="1"/>
       <c r="J2" s="2"/>
     </row>
@@ -1886,7 +1895,7 @@
         <v>4</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>5</v>
@@ -1946,10 +1955,10 @@
       <c r="D7" s="17"/>
       <c r="E7" s="17"/>
       <c r="F7" s="17" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G7" s="17" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H7" s="17"/>
       <c r="I7" s="17"/>
@@ -1978,7 +1987,7 @@
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
       <c r="F9" s="17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G9" s="17" t="s">
         <v>25</v>
@@ -1995,15 +2004,15 @@
       <c r="D10" s="29"/>
       <c r="E10" s="29"/>
       <c r="F10" s="29" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G10" s="29" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H10" s="29"/>
       <c r="I10" s="29"/>
       <c r="J10" s="30" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -2030,10 +2039,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J19"/>
+  <dimension ref="B1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2052,16 +2061,16 @@
       <c r="B2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="34"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="41"/>
       <c r="F2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2" s="34"/>
+      <c r="G2" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="H2" s="41"/>
       <c r="I2" s="1"/>
       <c r="J2" s="2"/>
     </row>
@@ -2087,7 +2096,7 @@
         <v>4</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>5</v>
@@ -2115,7 +2124,7 @@
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
       <c r="F5" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G5" s="10" t="s">
         <v>11</v>
@@ -2130,10 +2139,10 @@
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
       <c r="F6" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="G6" s="10" t="s">
         <v>99</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>101</v>
       </c>
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
@@ -2145,15 +2154,15 @@
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
       <c r="F7" s="10" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
       <c r="J7" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.15">
@@ -2162,7 +2171,7 @@
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
       <c r="F8" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G8" s="10" t="s">
         <v>24</v>
@@ -2172,20 +2181,20 @@
       <c r="J8" s="12"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B9" s="40"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41" t="s">
-        <v>31</v>
-      </c>
-      <c r="G9" s="41" t="s">
+      <c r="B9" s="37"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41"/>
-      <c r="J9" s="42" t="s">
-        <v>95</v>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="39" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.15">
@@ -2193,10 +2202,10 @@
       <c r="C10" s="17"/>
       <c r="D10" s="17"/>
       <c r="E10" s="17" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G10" s="17" t="s">
         <v>24</v>
@@ -2211,10 +2220,10 @@
       <c r="D11" s="17"/>
       <c r="E11" s="17"/>
       <c r="F11" s="17" t="s">
-        <v>36</v>
+        <v>103</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H11" s="17">
         <v>250</v>
@@ -2228,28 +2237,24 @@
       <c r="D12" s="17"/>
       <c r="E12" s="17"/>
       <c r="F12" s="17" t="s">
-        <v>38</v>
+        <v>104</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H12" s="17">
         <v>250</v>
       </c>
       <c r="I12" s="17"/>
-      <c r="J12" s="18" t="s">
-        <v>54</v>
-      </c>
+      <c r="J12" s="18"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B13" s="16"/>
       <c r="C13" s="17"/>
       <c r="D13" s="17"/>
-      <c r="E13" s="17" t="s">
-        <v>97</v>
-      </c>
+      <c r="E13" s="17"/>
       <c r="F13" s="17" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G13" s="17" t="s">
         <v>37</v>
@@ -2258,117 +2263,138 @@
         <v>250</v>
       </c>
       <c r="I13" s="17"/>
-      <c r="J13" s="18"/>
+      <c r="J13" s="18" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B14" s="16"/>
       <c r="C14" s="17"/>
       <c r="D14" s="17"/>
       <c r="E14" s="17" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F14" s="17" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H14" s="17">
         <v>250</v>
       </c>
       <c r="I14" s="17"/>
-      <c r="J14" s="18" t="s">
-        <v>55</v>
-      </c>
+      <c r="J14" s="18"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B15" s="16"/>
       <c r="C15" s="17"/>
       <c r="D15" s="17"/>
       <c r="E15" s="17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F15" s="17" t="s">
-        <v>96</v>
+        <v>42</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="H15" s="17"/>
+        <v>37</v>
+      </c>
+      <c r="H15" s="17">
+        <v>250</v>
+      </c>
       <c r="I15" s="17"/>
       <c r="J15" s="18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" ht="27" x14ac:dyDescent="0.15">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B16" s="16"/>
       <c r="C16" s="17"/>
       <c r="D16" s="17"/>
       <c r="E16" s="17" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>52</v>
+        <v>94</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="H16" s="17">
-        <v>250</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="H16" s="17"/>
       <c r="I16" s="17"/>
       <c r="J16" s="18" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" ht="40.5" x14ac:dyDescent="0.15">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" ht="27" x14ac:dyDescent="0.15">
       <c r="B17" s="16"/>
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
       <c r="E17" s="17" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F17" s="17" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="G17" s="17" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H17" s="17">
         <v>250</v>
       </c>
       <c r="I17" s="17"/>
       <c r="J17" s="18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" ht="54" x14ac:dyDescent="0.15">
+      <c r="B18" s="16"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="F18" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="G18" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="H18" s="17">
+        <v>250</v>
+      </c>
+      <c r="I18" s="17"/>
+      <c r="J18" s="18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B19" s="28"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B18" s="28"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G18" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="H18" s="29"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="30" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="13"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="15"/>
+      <c r="G19" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="30" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="13"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2401,18 +2427,18 @@
   <sheetData>
     <row r="1" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:7" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" s="35"/>
+      <c r="B2" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="42"/>
       <c r="D2" s="32"/>
       <c r="E2" s="32"/>
       <c r="F2" s="32"/>
       <c r="G2" s="21"/>
     </row>
     <row r="3" spans="2:7" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
       <c r="D3" s="32"/>
       <c r="E3" s="32"/>
       <c r="F3" s="32"/>
@@ -2421,88 +2447,88 @@
     <row r="4" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="5" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="E5" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="F5" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="G5" s="24" t="s">
         <v>49</v>
-      </c>
-      <c r="C5" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="D5" s="36" t="s">
-        <v>89</v>
-      </c>
-      <c r="E5" s="36" t="s">
-        <v>90</v>
-      </c>
-      <c r="F5" s="36" t="s">
-        <v>93</v>
-      </c>
-      <c r="G5" s="24" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B6" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
       <c r="G6" s="27"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B7" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
+        <v>45</v>
+      </c>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
       <c r="G7" s="11"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B8" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="D8" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="D8" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="E8" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="F8" s="35" t="s">
         <v>92</v>
-      </c>
-      <c r="E8" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="F8" s="38" t="s">
-        <v>94</v>
       </c>
       <c r="G8" s="11"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B9" s="9"/>
       <c r="C9" s="10"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
       <c r="G9" s="11"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B10" s="9"/>
       <c r="C10" s="10"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
       <c r="G10" s="11"/>
     </row>
     <row r="11" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B11" s="13"/>
       <c r="C11" s="14"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
       <c r="G11" s="15"/>
     </row>
   </sheetData>
@@ -2532,44 +2558,44 @@
   <sheetData>
     <row r="1" spans="2:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:4" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="C2" s="35"/>
+      <c r="B2" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="42"/>
       <c r="D2" s="21"/>
     </row>
     <row r="3" spans="2:4" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
       <c r="D3" s="21"/>
     </row>
     <row r="4" spans="2:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="5" spans="2:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="24" t="s">
         <v>49</v>
-      </c>
-      <c r="C5" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="D5" s="24" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B6" s="25" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D6" s="27"/>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B7" s="9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D7" s="11"/>
     </row>
